--- a/temp/tests_results_scenario_2.xlsx
+++ b/temp/tests_results_scenario_2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tests results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -355,15 +355,31 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
-    <col width="21" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="21" customWidth="1" min="16" max="16"/>
+    <col width="21" customWidth="1" min="17" max="17"/>
+    <col width="21" customWidth="1" min="18" max="18"/>
+    <col width="21" customWidth="1" min="19" max="19"/>
+    <col width="21" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="21" customWidth="1" min="24" max="24"/>
+    <col width="21" customWidth="1" min="25" max="25"/>
+    <col width="21" customWidth="1" min="26" max="26"/>
+    <col width="21" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -379,47 +395,2223 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>fp</t>
+          <t>classifier</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>fn</t>
+          <t>fp_a</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>tp</t>
+          <t>fp_b</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>tn</t>
+          <t>fp_c</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>fn_a</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>avg_misclassification</t>
+          <t>fn_b</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>sensitivity</t>
+          <t>fn_c</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>specificity</t>
+          <t>tp_a</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>classifier</t>
+          <t>tp_b</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>tp_c</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>tn_a</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>tn_b</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>tn_c</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>accuracy_a</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>accuracy_b</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>accuracy_c</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>avg_misclassification_a</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>avg_misclassification_b</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>avg_misclassification_c</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>sensitivity_a</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>sensitivity_b</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>sensitivity_c</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>specificity_a</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>specificity_b</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>specificity_c</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1364</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2118</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1538</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>4156</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2639</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.69850073</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.63032432</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.57255534</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.30149927</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.36967568</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.42744466</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.37330926</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.30713477</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0.74121992</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.8368982</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0.86068282</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.50532424</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2549</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2078</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1582</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>4264</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.69978436</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.63257123</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.57195947</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.30021564</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.36742877</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.42804053</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.37306902</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0.31156673</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.74025502</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0.83892476</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0.86142114</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.50481717</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1192</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1543</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1369</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.87208286</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.68263717</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.78231155</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.12791714</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.31736283</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.21768845</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.71232144</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0.64745885</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0.6530389</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0.94005422</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0.7077151</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.83377004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4819</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2943</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.87208284</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.68213276</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.78272431</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.12791716</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.31786724</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.21727569</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.71264624</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.64790089</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.65247647</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.93999337</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0.70666571</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.83472809</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2935</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.54016116</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.60673805</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.63631422</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.45983884</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.39326195</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.36368578</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.64785282</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0.24884899</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0.33524469</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0.49515906</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0.85704085</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>0.76210627</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2891</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.54003801</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.60765783</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.6373562</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.45996199</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.39234217</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.3626438</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.64866084</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0.25020018</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0.33593826</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0.49482293</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0.85749844</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0.76339118</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1149</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3545</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>3131</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.8600359</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.64717451</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.755599</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.1399641</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.35282549</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.244401</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.71319459</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0.58893782</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0.60906776</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0.92111597</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0.68790914</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>0.81683105</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2221</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>3162</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.85960597</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.64637676</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.75596766</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.14039403</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.35362324</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.24403234</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.71355181</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0.58749856</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0.60941812</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0.92031384</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0.68760392</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>0.8172803</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1378</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1830</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1265</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2844</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2608</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.72327338</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.58616082</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.67235081</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.27672662</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.41383918</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.32764919</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.63353533</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0.22053397</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0.72985168</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0.76077682</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0.84380781</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0.64868262</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1416</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>3054</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2855</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2635</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.72362196</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.5868592</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.6729327</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.27637804</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.4131408</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.3270673</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.63404602</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0.22036427</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0.73149974</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0.76082157</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0.84506621</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0.64853151</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2667</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>3630</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.89419729</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.80003424</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.85613676</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.10580271</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.19996576</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.14386324</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0.76520893</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0.78637663</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0.76996218</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0.94809054</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0.80970041</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0.89183269</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1289</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>3819</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2752</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3602</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.89594343</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.80102441</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.85596237</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.10405657</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.19897559</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.14403763</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.76964747</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0.78484896</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0.77186576</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.94871987</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0.81257137</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>0.8906859</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2738</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2987</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.68686674</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.58522509</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.64518405</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.31313326</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.41477491</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.35481595</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>0.56142347</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0.57038372</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0.20194076</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0.73831468</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0.59647693</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>0.8311606</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1265</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2680</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1671</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.68712325</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.57381044</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.61863537</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.31287675</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.42618956</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.38136463</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.56125397</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0.45354469</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0.30017677</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0.73863892</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0.66001336</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>0.75051427</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1475</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2370</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>3033</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.82954983</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.74727459</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.79100936</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.17045017</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0.25272541</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0.20899064</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0.64326894</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>0.69127639</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>0.71365256</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0.90597677</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0.78692413</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>0.82333789</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1446</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1092</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3292</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2408</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>3027</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.82884443</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.74721047</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.79152238</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.17115557</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.25278953</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.20847762</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0.63876687</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0.69102062</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>0.71785075</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0.90674695</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0.78688696</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>0.82234014</t>
         </is>
       </c>
     </row>

--- a/temp/tests_results_scenario_2.xlsx
+++ b/temp/tests_results_scenario_2.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,122 +531,122 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>344</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2576</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2118</t>
+          <t>1752</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>545</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>273</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4156</t>
+          <t>4736</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3730</t>
+          <t>2945</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.69850073</t>
+          <t>0.68708423</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.63032432</t>
+          <t>0.58053266</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.57255534</t>
+          <t>0.56920832</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.30149927</t>
+          <t>0.31291577</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.36967568</t>
+          <t>0.41946734</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.42744466</t>
+          <t>0.43079168</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.37330926</t>
+          <t>0.11957791</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.30713477</t>
+          <t>0.41451195</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.74121992</t>
+          <t>0.73704219</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.8368982</t>
+          <t>0.92873432</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.86068282</t>
+          <t>0.69888548</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.50532424</t>
+          <t>0.50221412</t>
         </is>
       </c>
     </row>
@@ -662,122 +662,122 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>313</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>1274</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2549</t>
+          <t>2626</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2078</t>
+          <t>1737</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>552</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>244</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4264</t>
+          <t>4789</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3741</t>
+          <t>2966</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>2572</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.69978436</t>
+          <t>0.68836827</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.63257123</t>
+          <t>0.58122076</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.57195947</t>
+          <t>0.56989548</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.30021564</t>
+          <t>0.31163173</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.36742877</t>
+          <t>0.41877924</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.42804053</t>
+          <t>0.43010452</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.37306902</t>
+          <t>0.12233618</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.31156673</t>
+          <t>0.41557653</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.74025502</t>
+          <t>0.73725489</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.83892476</t>
+          <t>0.92939525</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.86142114</t>
+          <t>0.69925325</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.50481717</t>
+          <t>0.50314174</t>
         </is>
       </c>
     </row>
@@ -793,122 +793,122 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>274</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>776</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>601</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>960</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>812</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>1540</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2061</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>1296</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4800</t>
+          <t>4855</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3031</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.87208286</t>
+          <t>0.87244979</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.68263717</t>
+          <t>0.68323316</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.78231155</t>
+          <t>0.78474144</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.12791714</t>
+          <t>0.12755021</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.31736283</t>
+          <t>0.31676684</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.21768845</t>
+          <t>0.21525856</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.71232144</t>
+          <t>0.70261661</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.64745885</t>
+          <t>0.67491075</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.6530389</t>
+          <t>0.6296965</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.94005422</t>
+          <t>0.94482245</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.7077151</t>
+          <t>0.68918595</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.83377004</t>
+          <t>0.84666223</t>
         </is>
       </c>
     </row>
@@ -924,1694 +924,4838 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>293</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>1288</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>795</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>611</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>994</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>771</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>2054</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4819</t>
+          <t>4843</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2943</t>
+          <t>2934</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4326</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.87208284</t>
+          <t>0.87240396</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.68213276</t>
+          <t>0.68492931</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.78272431</t>
+          <t>0.786392</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.12791716</t>
+          <t>0.12759604</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.31786724</t>
+          <t>0.31507069</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.21727569</t>
+          <t>0.213608</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.71264624</t>
+          <t>0.70151197</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.64790089</t>
+          <t>0.67883132</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.65247647</t>
+          <t>0.63076325</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.93999337</t>
+          <t>0.945225</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.70666571</t>
+          <t>0.68928044</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.83472809</t>
+          <t>0.84845776</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>397</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>664</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>390</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>275</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>641</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>535</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>2338</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>1536</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>4653</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2935</t>
+          <t>4809</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.54016116</t>
+          <t>0.90981623</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.60673805</t>
+          <t>0.82123707</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.63631422</t>
+          <t>0.87006577</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.45983884</t>
+          <t>0.09018377</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.39326195</t>
+          <t>0.17876293</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.36368578</t>
+          <t>0.12993423</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.64785282</t>
+          <t>0.87648078</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0.24884899</t>
+          <t>0.78631277</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.33524469</t>
+          <t>0.74199392</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>0.49515906</t>
+          <t>0.92406949</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.85704085</t>
+          <t>0.84615335</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.76210627</t>
+          <t>0.92117521</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>363</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>676</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>389</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>265</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>605</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>558</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>2444</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>4751</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>4816</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.54003801</t>
+          <t>0.90935776</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.60765783</t>
+          <t>0.82045783</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.6373562</t>
+          <t>0.86946969</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.45996199</t>
+          <t>0.09064224</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.39234217</t>
+          <t>0.17954217</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.3626438</t>
+          <t>0.13053031</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.64866084</t>
+          <t>0.87394732</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0.25020018</t>
+          <t>0.78630793</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0.33593826</t>
+          <t>0.74125613</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0.49482293</t>
+          <t>0.92451357</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0.85749844</t>
+          <t>0.84476446</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.76339118</t>
+          <t>0.92059507</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>327</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>411</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>2291</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>619</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>2276</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>134</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1337</t>
+          <t>753</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>1932</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3545</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2202</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>2913</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.8600359</t>
+          <t>0.86814</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.64717451</t>
+          <t>0.62528073</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.755599</t>
+          <t>0.66645222</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.1399641</t>
+          <t>0.13186</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.35282549</t>
+          <t>0.37471927</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.244401</t>
+          <t>0.33354778</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.71319459</t>
+          <t>0.71047647</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0.58893782</t>
+          <t>0.24935075</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.60906776</t>
+          <t>0.92606447</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0.92111597</t>
+          <t>0.93528312</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0.68790914</t>
+          <t>0.89349167</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.81683105</t>
+          <t>0.563107</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>345</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>459</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>624</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>2251</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>159</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>737</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>966</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3505</t>
+          <t>4719</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2221</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.85960597</t>
+          <t>0.86864417</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.64637676</t>
+          <t>0.62587703</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.75596766</t>
+          <t>0.66562741</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.14039403</t>
+          <t>0.13135583</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.35362324</t>
+          <t>0.37412297</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.24403234</t>
+          <t>0.33437259</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.71355181</t>
+          <t>0.71180888</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0.58749856</t>
+          <t>0.24762408</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.60941812</t>
+          <t>0.92733009</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0.92031384</t>
+          <t>0.93540026</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0.68760392</t>
+          <t>0.89556172</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.8172803</t>
+          <t>0.5612552</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>313</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>678</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>587</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1830</t>
+          <t>869</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>803</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>1591</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>4779</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>2983</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.72327338</t>
+          <t>0.87515468</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.58616082</t>
+          <t>0.69529141</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.67235081</t>
+          <t>0.78868472</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.27672662</t>
+          <t>0.12484532</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.41383918</t>
+          <t>0.30470859</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.32764919</t>
+          <t>0.21131528</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.63353533</t>
+          <t>0.72780663</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0.22053397</t>
+          <t>0.70568206</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.72985168</t>
+          <t>0.59096746</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0.76077682</t>
+          <t>0.93788999</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0.84380781</t>
+          <t>0.68794132</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0.64868262</t>
+          <t>0.86756507</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>321</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>687</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>568</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>889</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>844</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>1564</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>2162</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>1243</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3054</t>
+          <t>4817</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2635</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.72362196</t>
+          <t>0.873596</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.5868592</t>
+          <t>0.69497075</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.6729327</t>
+          <t>0.78900575</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.27637804</t>
+          <t>0.126404</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.4131408</t>
+          <t>0.30502925</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.3270673</t>
+          <t>0.21099425</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.63404602</t>
+          <t>0.72618186</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0.22036427</t>
+          <t>0.70656895</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.73149974</t>
+          <t>0.58876296</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0.76082157</t>
+          <t>0.93638605</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0.84506621</t>
+          <t>0.68680844</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.64853151</t>
+          <t>0.86890219</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>778</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>503</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>303</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>427</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>618</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>1158</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3807</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3630</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.89419729</t>
+          <t>0.80720377</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.80003424</t>
+          <t>0.61133889</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.85613676</t>
+          <t>0.72632947</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.10580271</t>
+          <t>0.19279623</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.19996576</t>
+          <t>0.38866111</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.14386324</t>
+          <t>0.27367053</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.76520893</t>
+          <t>0.80633895</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0.78637663</t>
+          <t>0.29276662</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0.76996218</t>
+          <t>0.73009219</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>0.94809054</t>
+          <t>0.80763709</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>0.80970041</t>
+          <t>0.83407274</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0.89183269</t>
+          <t>0.7248556</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>764</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>531</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>307</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>1622</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>442</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>644</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3819</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2752</t>
+          <t>2635</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>3602</t>
+          <t>2769</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.89594343</t>
+          <t>0.80732607</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.80102441</t>
+          <t>0.6111551</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.85596237</t>
+          <t>0.72639123</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.10405657</t>
+          <t>0.19267393</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.19897559</t>
+          <t>0.3888449</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.14403763</t>
+          <t>0.27360877</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.76964747</t>
+          <t>0.80617955</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0.78484896</t>
+          <t>0.29290642</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0.77186576</t>
+          <t>0.72966741</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>0.94871987</t>
+          <t>0.80781249</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>0.81257137</t>
+          <t>0.83363899</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>0.8906859</t>
+          <t>0.72504013</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>743</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>464</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>960</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>629</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>941</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2738</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2987</t>
+          <t>3119</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.68686674</t>
+          <t>0.86175317</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.58522509</t>
+          <t>0.64079257</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.64518405</t>
+          <t>0.75007678</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.31313326</t>
+          <t>0.13824683</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.41477491</t>
+          <t>0.35920743</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.35481595</t>
+          <t>0.24992322</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.56142347</t>
+          <t>0.71012339</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0.57038372</t>
+          <t>0.57699399</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>0.20194076</t>
+          <t>0.61174845</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>0.73831468</t>
+          <t>0.92493583</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0.59647693</t>
+          <t>0.68538729</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0.8311606</t>
+          <t>0.80786358</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>323</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>681</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>480</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>917</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>659</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>941</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2680</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>2156</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>3183</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.68712325</t>
+          <t>0.86163065</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.57381044</t>
+          <t>0.64024061</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.61863537</t>
+          <t>0.74977017</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.31287675</t>
+          <t>0.13836935</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.42618956</t>
+          <t>0.35975939</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.38136463</t>
+          <t>0.25022983</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.56125397</t>
+          <t>0.71013871</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0.45354469</t>
+          <t>0.57532065</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0.30017677</t>
+          <t>0.61224136</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>0.73863892</t>
+          <t>0.92465292</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>0.66001336</t>
+          <t>0.6856161</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0.75051427</t>
+          <t>0.80724621</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>313</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>748</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>490</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>367</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>630</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>554</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1295</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>987</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>3308</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2370</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.82954983</t>
+          <t>0.88095949</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.74727459</t>
+          <t>0.74688593</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.79100936</t>
+          <t>0.80358372</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.17045017</t>
+          <t>0.11904051</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.25272541</t>
+          <t>0.25311407</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.20899064</t>
+          <t>0.19641628</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.64326894</t>
+          <t>0.79098351</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0.69127639</t>
+          <t>0.72392408</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>0.71365256</t>
+          <t>0.62978405</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>0.90597677</t>
+          <t>0.91848775</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>0.78692413</t>
+          <t>0.76297041</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>0.82333789</t>
+          <t>0.87636799</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1289</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.87997782</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.74964701</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.80609897</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.12002218</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.25035299</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.19390103</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0.79254453</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0.72867484</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>0.62820528</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0.91630452</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0.76418826</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>0.8805178</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>2</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>662</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>637</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>545</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>682</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>991</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1446</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1092</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>3292</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2408</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>3027</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.82884443</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0.74721047</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.79152238</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.17115557</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.25278953</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.20847762</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.63876687</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0.69102062</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0.71785075</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0.90674695</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0.78688696</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>0.82234014</t>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2164</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1526</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>3717</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2654</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1692</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.82021264</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0.55678933</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0.59409671</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.17978736</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.44321067</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0.40590329</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>0.47646668</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>0.14431879</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>0.97063911</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0.96324526</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0.84499975</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>0.4366333</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2152</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1567</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>3716</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2693</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1658</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.82567388</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0.56218982</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.59329955</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.17432612</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.43781018</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.40670045</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0.50226025</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>0.1377933</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>0.97088446</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>0.96010808</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>0.85863894</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>0.43543459</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>3602</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2413</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2803</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.86156968</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.65564165</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.74461521</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.13843032</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.34435835</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0.25538479</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>0.69884182</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>0.49813271</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>0.74871651</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>0.929289</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>0.76573624</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>0.74295252</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1117</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>3569</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2456</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2857</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.86236746</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.65558082</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.74424748</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.13763254</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.34441918</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.25575252</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0.70134281</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>0.49784043</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>0.74690698</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>0.92935507</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>0.76572717</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>0.74312116</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1789</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2848</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2658</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.72408802</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0.58924525</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0.67334013</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0.27591198</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0.41075475</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0.32665987</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0.6386188</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>0.22223064</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>0.730332</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>0.75975901</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>0.84787508</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>0.64978042</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1033</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1229</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>3105</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2590</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.72507696</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0.58988462</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0.67368871</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.27492304</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>0.41011538</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0.32631129</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0.63909895</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>0.22442541</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>0.7303792</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>0.76100963</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>0.84741701</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>0.65023319</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1305</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1777</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1239</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>3825</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2682</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>3541</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.89146274</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0.77506859</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0.83763004</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0.10853726</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>0.22493141</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>0.16236996</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>0.78270274</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>0.73854679</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>0.74052657</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>0.93683718</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>0.80087712</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>0.87777998</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1755</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1256</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>3813</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2684</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>3542</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.891288</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0.77541755</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.83792119</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0.108712</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0.22458245</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>0.16207881</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>0.77913899</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>0.73947709</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>0.74340668</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>0.93807042</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>0.80073771</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>0.87695954</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1464</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1291</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2898</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>3762</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.91427595</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.8454289</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.88459511</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0.08572405</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.1545711</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0.11540489</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0.85834165</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>0.82433774</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>0.78288253</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>0.93767744</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>0.86028917</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>0.92677612</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>3818</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2896</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3720</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.91293724</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0.84310078</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.88383883</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.08706276</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.15689922</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0.11616117</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>0.85412776</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>0.82343979</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>0.78056193</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>0.93750086</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>0.85696509</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>0.92645903</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1726</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1823</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>3472</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>3182</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2338</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.79724127</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0.66082729</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0.6862017</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0.20275873</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0.33917271</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0.3137983</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>0.64644731</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>0.23682418</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>0.9711573</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>0.86010991</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>0.95950731</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>0.56842692</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1749</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1819</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>3438</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2314</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.79648479</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.66036195</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.68602688</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0.20351521</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0.33963805</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0.31397312</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>0.64693171</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>0.2356842</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>0.96993882</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>0.8588241</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>0.9595374</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>0.56866887</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1415</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2688</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>3747</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.89710776</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0.79008356</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0.85060853</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0.10289224</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0.20991644</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>0.14939147</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>0.82495504</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>0.78836662</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>0.68510862</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>0.92719799</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>0.79138701</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>0.91895843</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>3815</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2623</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>3704</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0.89623492</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.78932674</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0.84979343</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0.10376508</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0.21067326</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0.15020657</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>0.82453203</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>0.78493679</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>0.68596382</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>0.92606849</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>0.79237012</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>0.91750394</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1273</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2718</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1681</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>3133</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.67904322</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.57105297</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.64075927</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0.32095678</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>0.42894703</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>0.35924073</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>0.55661553</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>0.47636969</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>0.29342896</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>0.72918614</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>0.63811934</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>0.78712943</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2709</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0.6792356</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.56951392</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0.62491984</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0.3207644</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>0.43048608</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0.37508016</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>0.55678072</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>0.42317188</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>0.34165509</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>0.72944031</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>0.67509663</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>0.74460218</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1477</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1119</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2405</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2964</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.82474028</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.73771964</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0.78139028</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0.17525972</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>0.26228036</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0.21860972</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>0.6196442</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>0.67054839</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>0.72559632</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>0.90886385</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>0.78529855</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>0.80480079</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2378</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2988</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.82223932</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.73605233</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.78106964</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0.17776068</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>0.26394767</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0.21893036</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>0.61746215</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>0.66644673</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>0.72568044</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>0.90622194</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>0.78523547</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>0.80421879</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>3036</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2107</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2958</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.73214057</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0.66076696</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0.73406438</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0.26785943</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>0.33923304</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0.26593562</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>0.53363621</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>0.61133915</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>0.5260523</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>0.81353531</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>0.69581793</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>0.82112946</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1361</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>3073</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2065</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2981</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.73361549</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.65538027</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0.7307939</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0.26638451</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>0.34461973</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0.2692061</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0.52450342</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>0.61488252</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>0.51754253</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>0.81929893</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>0.6839917</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>0.82007326</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1653</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1865</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1502</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2954</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.74009234</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.62524048</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0.67532384</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0.25990766</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>0.37475952</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>0.32467616</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>0.62555731</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>0.12947269</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>0.96526914</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>0.78702218</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>0.97572342</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>0.5539424</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1576</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1856</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1489</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2867</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2985</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2060</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.74047711</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.62588175</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0.67468257</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0.25952289</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>0.37411825</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0.32531743</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>0.62524634</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>0.1301091</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>0.96558552</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>0.78773511</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>0.97649643</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>0.55308167</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1467</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>3386</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2358</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2942</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.81839169</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.74259331</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0.79171476</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0.18160831</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>0.25740669</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>0.20828524</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>0.55683058</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>0.70092357</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>0.75980752</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>0.92568014</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>0.77208581</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>0.80507986</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1499</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>3416</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2364</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2910</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.81813518</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0.74355521</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0.79036809</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0.18186482</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>0.25644479</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0.20963191</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>0.5570638</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>0.69960261</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>0.76041064</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>0.92522796</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>0.77467994</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>0.80300397</t>
         </is>
       </c>
     </row>

--- a/temp/tests_results_scenario_2.xlsx
+++ b/temp/tests_results_scenario_2.xlsx
@@ -531,122 +531,122 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>381</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2577</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>528</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4736</t>
+          <t>4746</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2620</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.68708423</t>
+          <t>0.68703886</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.58053266</t>
+          <t>0.58122052</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.56920832</t>
+          <t>0.56957462</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.31291577</t>
+          <t>0.31296114</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.41946734</t>
+          <t>0.41877948</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.43079168</t>
+          <t>0.43042538</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.11957791</t>
+          <t>0.1199665</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.41451195</t>
+          <t>0.41546421</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.73704219</t>
+          <t>0.73707279</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.92873432</t>
+          <t>0.92847206</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.69888548</t>
+          <t>0.69948975</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.50221412</t>
+          <t>0.50274052</t>
         </is>
       </c>
     </row>
@@ -662,122 +662,122 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>327</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1756</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>518</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>255</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1293</t>
+          <t>1246</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4789</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2966</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2572</t>
+          <t>2567</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.68836827</t>
+          <t>0.6866719</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.58122076</t>
+          <t>0.58085387</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.56989548</t>
+          <t>0.56957511</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.31163173</t>
+          <t>0.3133281</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.41877924</t>
+          <t>0.41914613</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.43010452</t>
+          <t>0.43042489</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.12233618</t>
+          <t>0.12036009</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.41557653</t>
+          <t>0.41463165</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.73725489</t>
+          <t>0.73653525</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.92939525</t>
+          <t>0.92783162</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.69925325</t>
+          <t>0.69934687</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.50314174</t>
+          <t>0.50293449</t>
         </is>
       </c>
     </row>
@@ -793,122 +793,122 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>292</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>742</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>663</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>940</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>777</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2061</t>
+          <t>2129</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1296</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4855</t>
+          <t>4822</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2926</t>
+          <t>2855</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4386</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.87244979</t>
+          <t>0.87258686</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.68323316</t>
+          <t>0.68392073</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.78474144</t>
+          <t>0.78556711</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.12755021</t>
+          <t>0.12741314</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.31676684</t>
+          <t>0.31607927</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.21525856</t>
+          <t>0.21443289</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.70261661</t>
+          <t>0.70164381</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.67491075</t>
+          <t>0.67743532</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.6296965</t>
+          <t>0.62927386</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.94482245</t>
+          <t>0.94535383</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.68918595</t>
+          <t>0.6883625</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.84666223</t>
+          <t>0.84783753</t>
         </is>
       </c>
     </row>
@@ -924,122 +924,122 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>290</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>785</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>646</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>980</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>796</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>1516</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2054</t>
+          <t>2073</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4843</t>
+          <t>4818</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>2870</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.87240396</t>
+          <t>0.87272487</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.68492931</t>
+          <t>0.68240807</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.786392</t>
+          <t>0.78345788</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.12759604</t>
+          <t>0.12727513</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.31507069</t>
+          <t>0.31759193</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.213608</t>
+          <t>0.21654212</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.70151197</t>
+          <t>0.70218504</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.67883132</t>
+          <t>0.67313031</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.63076325</t>
+          <t>0.6291354</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.945225</t>
+          <t>0.94534999</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.68928044</t>
+          <t>0.68896727</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.84845776</t>
+          <t>0.84497852</t>
         </is>
       </c>
     </row>
@@ -1055,122 +1055,122 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>401</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>720</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>393</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>285</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>650</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>579</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2338</t>
+          <t>2374</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>1516</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4653</t>
+          <t>4718</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3627</t>
+          <t>3526</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4809</t>
+          <t>4782</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.90981623</t>
+          <t>0.91068711</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.82123707</t>
+          <t>0.82004475</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.87006577</t>
+          <t>0.87038661</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.09018377</t>
+          <t>0.08931289</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.17876293</t>
+          <t>0.17995525</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.12993423</t>
+          <t>0.12961339</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.87648078</t>
+          <t>0.87322999</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0.78631277</t>
+          <t>0.79070039</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.74199392</t>
+          <t>0.73896074</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>0.92406949</t>
+          <t>0.92667635</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.84615335</t>
+          <t>0.84096685</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.92117521</t>
+          <t>0.92286123</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>405</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>681</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>352</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>252</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>628</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1216,92 +1216,92 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2444</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4751</t>
+          <t>4651</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3545</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4816</t>
+          <t>4893</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.90935776</t>
+          <t>0.91380483</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.82045783</t>
+          <t>0.82334597</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.86946969</t>
+          <t>0.87112039</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.09064224</t>
+          <t>0.08619517</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.17954217</t>
+          <t>0.17665403</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.13053031</t>
+          <t>0.12887961</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.87394732</t>
+          <t>0.88345497</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0.78630793</t>
+          <t>0.7924498</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0.74125613</t>
+          <t>0.73797544</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0.92451357</t>
+          <t>0.92668909</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0.84476446</t>
+          <t>0.84535633</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.92059507</t>
+          <t>0.92414429</t>
         </is>
       </c>
     </row>
@@ -1317,122 +1317,122 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>253</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>584</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2291</t>
+          <t>2621</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2276</t>
+          <t>2284</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>128</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>715</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4844</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2913</t>
+          <t>2551</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.86814</t>
+          <t>0.82440046</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.62528073</t>
+          <t>0.60148559</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.66645222</t>
+          <t>0.61285616</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.13186</t>
+          <t>0.17559954</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.37471927</t>
+          <t>0.39851441</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.33354778</t>
+          <t>0.38714384</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.71047647</t>
+          <t>0.53253779</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0.24935075</t>
+          <t>0.21905241</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.92606447</t>
+          <t>0.94409599</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0.93528312</t>
+          <t>0.94868282</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0.89349167</t>
+          <t>0.87421989</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.563107</t>
+          <t>0.48077173</t>
         </is>
       </c>
     </row>
@@ -1448,122 +1448,122 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>270</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>586</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2230</t>
+          <t>2651</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2251</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>692</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4719</t>
+          <t>4841</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3823</t>
+          <t>3653</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.86864417</t>
+          <t>0.82495076</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.62587703</t>
+          <t>0.60350272</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.66562741</t>
+          <t>0.61404781</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.13135583</t>
+          <t>0.17504924</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.37412297</t>
+          <t>0.39649728</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.33437259</t>
+          <t>0.38595219</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.71180888</t>
+          <t>0.5342954</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0.24762408</t>
+          <t>0.22129099</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.92733009</t>
+          <t>0.94548693</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0.93540026</t>
+          <t>0.94876204</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0.89556172</t>
+          <t>0.87597928</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.5612552</t>
+          <t>0.48179801</t>
         </is>
       </c>
     </row>
@@ -1579,122 +1579,122 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>371</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>764</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>565</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>762</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2066</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4779</t>
+          <t>4721</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2983</t>
+          <t>2992</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4519</t>
+          <t>4490</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.87515468</t>
+          <t>0.87391664</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.69529141</t>
+          <t>0.69295311</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.78868472</t>
+          <t>0.7875843</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.12484532</t>
+          <t>0.12608336</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.30470859</t>
+          <t>0.30704689</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.21131528</t>
+          <t>0.2124157</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.72780663</t>
+          <t>0.72823368</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0.70568206</t>
+          <t>0.70131457</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.59096746</t>
+          <t>0.58934617</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0.93788999</t>
+          <t>0.93591438</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0.68794132</t>
+          <t>0.68723537</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0.86756507</t>
+          <t>0.86693171</t>
         </is>
       </c>
     </row>
@@ -1710,122 +1710,122 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>339</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1293</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>705</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>557</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>927</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>811</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2162</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4817</t>
+          <t>4798</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2926</t>
+          <t>2985</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>4496</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.873596</t>
+          <t>0.87364177</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.69497075</t>
+          <t>0.69561261</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.78900575</t>
+          <t>0.78905173</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.126404</t>
+          <t>0.12635823</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.30502925</t>
+          <t>0.30438739</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.21099425</t>
+          <t>0.21094827</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.72618186</t>
+          <t>0.72483683</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0.70656895</t>
+          <t>0.70322844</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.58876296</t>
+          <t>0.59611537</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0.93638605</t>
+          <t>0.93705489</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0.68680844</t>
+          <t>0.6901957</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.86890219</t>
+          <t>0.86594952</t>
         </is>
       </c>
     </row>
@@ -1841,122 +1841,122 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>741</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>518</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>327</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>413</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>625</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.80720377</t>
+          <t>0.80683564</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.61133889</t>
+          <t>0.6115231</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.72632947</t>
+          <t>0.72651355</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.19279623</t>
+          <t>0.19316436</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.38866111</t>
+          <t>0.3884769</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.27367053</t>
+          <t>0.27348645</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.80633895</t>
+          <t>0.80538287</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0.29276662</t>
+          <t>0.29347311</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0.73009219</t>
+          <t>0.72971627</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>0.80763709</t>
+          <t>0.80744727</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>0.83407274</t>
+          <t>0.83383379</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0.7248556</t>
+          <t>0.72524779</t>
         </is>
       </c>
     </row>
@@ -1972,122 +1972,122 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>748</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>555</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>287</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>1573</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>457</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>634</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3089</t>
+          <t>3096</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2635</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2769</t>
+          <t>2781</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.80732607</t>
+          <t>0.80757193</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.6111551</t>
+          <t>0.61164584</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.72639123</t>
+          <t>0.72651397</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.19267393</t>
+          <t>0.19242807</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.3888449</t>
+          <t>0.38835416</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.27360877</t>
+          <t>0.27348603</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.80617955</t>
+          <t>0.80617816</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0.29290642</t>
+          <t>0.29384352</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0.72966741</t>
+          <t>0.7297553</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>0.80781249</t>
+          <t>0.80815297</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>0.83363899</t>
+          <t>0.83374031</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>0.72504013</t>
+          <t>0.72524041</t>
         </is>
       </c>
     </row>
@@ -2103,12 +2103,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>286</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2118,107 +2118,107 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>487</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>951</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>602</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>996</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3542</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2202</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>3119</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.86175317</t>
+          <t>0.86193771</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.64079257</t>
+          <t>0.64091547</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.75007678</t>
+          <t>0.74952453</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.13824683</t>
+          <t>0.13806229</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.35920743</t>
+          <t>0.35908453</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.24992322</t>
+          <t>0.25047547</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.71012339</t>
+          <t>0.71162358</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0.57699399</t>
+          <t>0.57335265</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>0.61174845</t>
+          <t>0.61478013</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>0.92493583</t>
+          <t>0.92449237</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0.68538729</t>
+          <t>0.68809803</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0.80786358</t>
+          <t>0.8058634</t>
         </is>
       </c>
     </row>
@@ -2234,122 +2234,122 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>306</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>977</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>747</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>441</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>964</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>625</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1284</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>949</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2156</t>
+          <t>2207</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>3151</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.86163065</t>
+          <t>0.86248995</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.64024061</t>
+          <t>0.64128361</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.74977017</t>
+          <t>0.74983107</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.13836935</t>
+          <t>0.13751005</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.35975939</t>
+          <t>0.35871639</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.25022983</t>
+          <t>0.25016893</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.71013871</t>
+          <t>0.710143</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0.57532065</t>
+          <t>0.57812723</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0.61224136</t>
+          <t>0.61154299</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>0.92465292</t>
+          <t>0.92581936</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>0.6856161</t>
+          <t>0.68554664</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0.80724621</t>
+          <t>0.8075992</t>
         </is>
       </c>
     </row>
@@ -2365,122 +2365,122 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>335</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>762</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>436</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>319</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>614</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1295</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>3457</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>3401</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.88095949</t>
+          <t>0.88040751</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.74688593</t>
+          <t>0.74909481</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.80358372</t>
+          <t>0.80609939</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.11904051</t>
+          <t>0.11959249</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.25311407</t>
+          <t>0.25090519</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.19641628</t>
+          <t>0.19390061</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.79098351</t>
+          <t>0.79158672</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0.72392408</t>
+          <t>0.73288521</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>0.62978405</t>
+          <t>0.62344667</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>0.91848775</t>
+          <t>0.9173765</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>0.76297041</t>
+          <t>0.76047177</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>0.87636799</t>
+          <t>0.88260946</t>
         </is>
       </c>
     </row>
@@ -2496,122 +2496,122 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>305</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>740</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>494</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>352</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>625</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>562</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3468</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>3360</t>
+          <t>3328</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.87997782</t>
+          <t>0.88298494</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.74964701</t>
+          <t>0.75118113</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.80609897</t>
+          <t>0.80524005</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.12002218</t>
+          <t>0.11701506</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.25035299</t>
+          <t>0.24881887</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.19390103</t>
+          <t>0.19475995</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.79254453</t>
+          <t>0.79166545</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0.72867484</t>
+          <t>0.733569</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0.62820528</t>
+          <t>0.62869376</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>0.91630452</t>
+          <t>0.92099687</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>0.76418826</t>
+          <t>0.76346239</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>0.8805178</t>
+          <t>0.8790373</t>
         </is>
       </c>
     </row>
@@ -2627,122 +2627,122 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>131</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>424</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2164</t>
+          <t>2486</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>933</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>652</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>200</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3717</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2654</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.82021264</t>
+          <t>0.7987979</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.55678933</t>
+          <t>0.54071349</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.59409671</t>
+          <t>0.54605064</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.17978736</t>
+          <t>0.2012021</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.44321067</t>
+          <t>0.45928651</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.40590329</t>
+          <t>0.45394936</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.47646668</t>
+          <t>0.39540245</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0.14431879</t>
+          <t>0.10644006</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0.97063911</t>
+          <t>0.95942565</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>0.96324526</t>
+          <t>0.9666075</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>0.84499975</t>
+          <t>0.84437822</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0.4366333</t>
+          <t>0.37321062</t>
         </is>
       </c>
     </row>
@@ -2758,122 +2758,122 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>534</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2152</t>
+          <t>2375</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1933</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>606</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>239</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1567</t>
+          <t>1562</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3716</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2693</t>
+          <t>2725</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1436</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.82567388</t>
+          <t>0.79959448</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.56218982</t>
+          <t>0.5423697</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.59329955</t>
+          <t>0.54592878</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.17432612</t>
+          <t>0.20040552</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.43781018</t>
+          <t>0.4576303</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.40670045</t>
+          <t>0.45407122</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.50226025</t>
+          <t>0.39760472</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>0.1377933</t>
+          <t>0.10785883</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>0.97088446</t>
+          <t>0.95948097</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>0.96010808</t>
+          <t>0.96699113</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>0.85863894</t>
+          <t>0.84612484</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>0.43543459</t>
+          <t>0.37302435</t>
         </is>
       </c>
     </row>
@@ -2889,122 +2889,122 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>272</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>690</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>996</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>451</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>373</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>3602</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2413</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>2788</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.86156968</t>
+          <t>0.86175428</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.65564165</t>
+          <t>0.65551981</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.74461521</t>
+          <t>0.74332693</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.13843032</t>
+          <t>0.13824572</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.34435835</t>
+          <t>0.34448019</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0.25538479</t>
+          <t>0.25667307</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.69884182</t>
+          <t>0.69949807</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0.49813271</t>
+          <t>0.4976987</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0.74871651</t>
+          <t>0.74611048</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>0.929289</t>
+          <t>0.92932816</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>0.76573624</t>
+          <t>0.76582475</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>0.74295252</t>
+          <t>0.74196461</t>
         </is>
       </c>
     </row>
@@ -3020,42 +3020,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>296</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>756</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>969</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>464</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>425</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3065,77 +3065,77 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>3569</t>
+          <t>3595</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2415</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.86236746</t>
+          <t>0.86187629</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.65558082</t>
+          <t>0.65619434</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.74424748</t>
+          <t>0.7440025</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.13763254</t>
+          <t>0.13812371</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.34441918</t>
+          <t>0.34380566</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.25575252</t>
+          <t>0.2559975</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.70134281</t>
+          <t>0.69925919</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0.49784043</t>
+          <t>0.49857197</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0.74690698</t>
+          <t>0.74813452</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>0.92935507</t>
+          <t>0.92958362</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>0.76572717</t>
+          <t>0.76640628</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>0.74312116</t>
+          <t>0.74245508</t>
         </is>
       </c>
     </row>
@@ -3151,122 +3151,122 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>957</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>483</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>608</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>435</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>499</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>3072</t>
+          <t>3075</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2848</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>2591</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.72408802</t>
+          <t>0.72519359</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.58924525</t>
+          <t>0.59046729</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.67334013</t>
+          <t>0.67345598</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.27591198</t>
+          <t>0.27480641</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.41075475</t>
+          <t>0.40953271</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.32665987</t>
+          <t>0.32654402</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.6386188</t>
+          <t>0.63982489</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>0.22223064</t>
+          <t>0.22372337</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>0.730332</t>
+          <t>0.73114259</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>0.75975901</t>
+          <t>0.76078442</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>0.84787508</t>
+          <t>0.84881974</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>0.64978042</t>
+          <t>0.64962536</t>
         </is>
       </c>
     </row>
@@ -3282,122 +3282,122 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>978</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>514</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1436</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>590</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>1809</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>453</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>537</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>1271</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.72507696</t>
+          <t>0.7249026</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.58988462</t>
+          <t>0.59006019</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.67368871</t>
+          <t>0.67299135</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.27492304</t>
+          <t>0.2750974</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.41011538</t>
+          <t>0.40993981</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.32631129</t>
+          <t>0.32700865</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.63909895</t>
+          <t>0.63927947</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0.22442541</t>
+          <t>0.22366514</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0.7303792</t>
+          <t>0.72955618</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>0.76100963</t>
+          <t>0.76062254</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>0.84741701</t>
+          <t>0.84811787</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0.65023319</t>
+          <t>0.64959054</t>
         </is>
       </c>
     </row>
@@ -3413,122 +3413,122 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>231</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>682</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>510</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>373</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>607</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>443</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1754</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2682</t>
+          <t>2684</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>3541</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.89146274</t>
+          <t>0.89245196</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.77506859</t>
+          <t>0.77582489</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.83763004</t>
+          <t>0.83739721</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.10853726</t>
+          <t>0.10754804</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.22493141</t>
+          <t>0.22417511</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0.16236996</t>
+          <t>0.16260279</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.78270274</t>
+          <t>0.78175633</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0.73854679</t>
+          <t>0.74099954</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>0.74052657</t>
+          <t>0.74077116</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>0.93683718</t>
+          <t>0.93865976</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>0.80087712</t>
+          <t>0.8005197</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>0.87777998</t>
+          <t>0.8773817</t>
         </is>
       </c>
     </row>
@@ -3544,122 +3544,122 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>245</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>629</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>510</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>379</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>622</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>383</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1755</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>3813</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>2706</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>3542</t>
+          <t>3610</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.891288</t>
+          <t>0.89256815</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.77541755</t>
+          <t>0.77669818</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.83792119</t>
+          <t>0.83815433</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.108712</t>
+          <t>0.10743185</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.22458245</t>
+          <t>0.22330182</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0.16207881</t>
+          <t>0.16184567</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.77913899</t>
+          <t>0.78419066</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>0.73947709</t>
+          <t>0.74019889</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>0.74340668</t>
+          <t>0.7424734</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>0.93807042</t>
+          <t>0.93774432</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>0.80073771</t>
+          <t>0.80243827</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>0.87695954</t>
+          <t>0.87787228</t>
         </is>
       </c>
     </row>
@@ -3675,122 +3675,122 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>249</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>479</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>289</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>247</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>391</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>379</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2898</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>3762</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.91427595</t>
+          <t>0.91270446</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.8454289</t>
+          <t>0.84595252</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.88459511</t>
+          <t>0.88133632</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.08572405</t>
+          <t>0.08729554</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.1545711</t>
+          <t>0.15404748</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0.11540489</t>
+          <t>0.11866368</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.85834165</t>
+          <t>0.85281143</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>0.82433774</t>
+          <t>0.8261929</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0.78288253</t>
+          <t>0.77837581</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>0.93767744</t>
+          <t>0.93768779</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>0.86028917</t>
+          <t>0.85987974</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0.92677612</t>
+          <t>0.92392768</t>
         </is>
       </c>
     </row>
@@ -3806,122 +3806,122 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>252</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>484</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>290</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>233</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>401</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>392</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3818</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>3720</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.91293724</t>
+          <t>0.9142758</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.84310078</t>
+          <t>0.84531224</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.88383883</t>
+          <t>0.88354754</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.08706276</t>
+          <t>0.0857242</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.15689922</t>
+          <t>0.15468776</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>0.11616117</t>
+          <t>0.11645246</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0.85412776</t>
+          <t>0.85678733</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>0.82343979</t>
+          <t>0.82526318</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0.78056193</t>
+          <t>0.78096056</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>0.93750086</t>
+          <t>0.938238</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>0.85696509</t>
+          <t>0.85944402</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>0.92645903</t>
+          <t>0.92598002</t>
         </is>
       </c>
     </row>
@@ -3937,122 +3937,122 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>378</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>187</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>705</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>824</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3472</t>
+          <t>3633</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3182</t>
+          <t>3199</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2338</t>
+          <t>2293</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.79724127</t>
+          <t>0.80992847</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.66082729</t>
+          <t>0.69231276</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.6862017</t>
+          <t>0.66507643</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.20275873</t>
+          <t>0.19007153</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.33917271</t>
+          <t>0.30768724</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.3137983</t>
+          <t>0.33492357</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.64644731</t>
+          <t>0.57343475</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0.23682418</t>
+          <t>0.34682877</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>0.9711573</t>
+          <t>0.92855887</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>0.86010991</t>
+          <t>0.90843793</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>0.95950731</t>
+          <t>0.93567626</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>0.56842692</t>
+          <t>0.55612177</t>
         </is>
       </c>
     </row>
@@ -4068,122 +4068,122 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>398</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>214</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1749</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>744</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>139</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>989</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>826</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>3438</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2314</t>
+          <t>2288</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.79648479</t>
+          <t>0.80771651</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.66036195</t>
+          <t>0.69103216</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.68602688</t>
+          <t>0.6641447</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.20351521</t>
+          <t>0.19228349</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.33963805</t>
+          <t>0.30896784</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.31397312</t>
+          <t>0.3358553</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.64693171</t>
+          <t>0.57211616</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0.2356842</t>
+          <t>0.34571304</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0.96993882</t>
+          <t>0.92422146</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>0.8588241</t>
+          <t>0.90600457</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>0.9595374</t>
+          <t>0.93432252</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>0.56866887</t>
+          <t>0.55667545</t>
         </is>
       </c>
     </row>
@@ -4199,122 +4199,122 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>296</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>710</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>333</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>304</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>502</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>533</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1415</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>3738</t>
+          <t>3762</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2688</t>
+          <t>2659</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>3747</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.89710776</t>
+          <t>0.89734027</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.79008356</t>
+          <t>0.79177074</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.85060853</t>
+          <t>0.85031708</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.10289224</t>
+          <t>0.10265973</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.20991644</t>
+          <t>0.20822926</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0.14939147</t>
+          <t>0.14968292</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>0.82495504</t>
+          <t>0.82414202</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0.78836662</t>
+          <t>0.78880474</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>0.68510862</t>
+          <t>0.68798868</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>0.92719799</t>
+          <t>0.92784924</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>0.79138701</t>
+          <t>0.79387802</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0.91895843</t>
+          <t>0.91743204</t>
         </is>
       </c>
     </row>
@@ -4330,122 +4330,122 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>288</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>706</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>320</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>325</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>479</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>510</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>3815</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2623</t>
+          <t>2681</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>3704</t>
+          <t>3750</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.89623492</t>
+          <t>0.89786388</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.78932674</t>
+          <t>0.79014159</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.84979343</t>
+          <t>0.85060842</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.10376508</t>
+          <t>0.10213612</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.21067326</t>
+          <t>0.20985841</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.15020657</t>
+          <t>0.14939158</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.82453203</t>
+          <t>0.82609361</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0.78493679</t>
+          <t>0.78617237</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>0.68596382</t>
+          <t>0.68851959</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>0.92606849</t>
+          <t>0.92784382</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>0.79237012</t>
+          <t>0.79291505</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>0.91750394</t>
+          <t>0.91759521</t>
         </is>
       </c>
     </row>
@@ -4461,122 +4461,122 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>985</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>719</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1366</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>702</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>1558</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1273</t>
+          <t>810</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>858</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>557</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>713</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2718</t>
+          <t>2653</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>2309</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.67904322</t>
+          <t>0.67891497</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.57105297</t>
+          <t>0.56906503</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.64075927</t>
+          <t>0.63787354</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.32095678</t>
+          <t>0.32108503</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.42894703</t>
+          <t>0.43093497</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0.35924073</t>
+          <t>0.36212646</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.55661553</t>
+          <t>0.55706477</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>0.47636969</t>
+          <t>0.46906569</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>0.29342896</t>
+          <t>0.29187787</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>0.72918614</t>
+          <t>0.72889052</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>0.63811934</t>
+          <t>0.63765135</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>0.78712943</t>
+          <t>0.7832016</t>
         </is>
       </c>
     </row>
@@ -4592,62 +4592,62 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>983</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>759</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>687</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>999</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>844</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>485</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>2684</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2799</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4657,12 +4657,12 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.56951392</t>
+          <t>0.57977427</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.62491984</t>
+          <t>0.64646659</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -4672,42 +4672,42 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.43048608</t>
+          <t>0.42022573</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.37508016</t>
+          <t>0.35353341</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0.55678072</t>
+          <t>0.55759172</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0.42317188</t>
+          <t>0.48995126</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0.34165509</t>
+          <t>0.29807507</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>0.72944031</t>
+          <t>0.72919299</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>0.67509663</t>
+          <t>0.64410857</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>0.74460218</t>
+          <t>0.79215644</t>
         </is>
       </c>
     </row>
@@ -4723,122 +4723,122 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>376</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>614</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>728</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>544</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>755</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>419</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>934</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>1415</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>3366</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2414</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.82474028</t>
+          <t>0.82352187</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.73771964</t>
+          <t>0.73714249</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.78139028</t>
+          <t>0.78203155</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.17525972</t>
+          <t>0.17647813</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.26228036</t>
+          <t>0.26285751</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0.21860972</t>
+          <t>0.21796845</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0.6196442</t>
+          <t>0.62093283</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>0.67054839</t>
+          <t>0.66757548</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>0.72559632</t>
+          <t>0.72657951</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>0.90886385</t>
+          <t>0.90672269</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>0.78529855</t>
+          <t>0.78643003</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>0.80480079</t>
+          <t>0.80522754</t>
         </is>
       </c>
     </row>
@@ -4854,122 +4854,122 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>364</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>691</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>727</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>592</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>748</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>442</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>913</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>3308</t>
+          <t>3329</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2378</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2988</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.82223932</t>
+          <t>0.82441965</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.73605233</t>
+          <t>0.73630884</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.78106964</t>
+          <t>0.7811979</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.17776068</t>
+          <t>0.17558035</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.26394767</t>
+          <t>0.26369116</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0.21893036</t>
+          <t>0.2188021</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0.61746215</t>
+          <t>0.62044595</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>0.66644673</t>
+          <t>0.66811472</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0.72568044</t>
+          <t>0.72475562</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>0.90622194</t>
+          <t>0.90803328</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>0.78523547</t>
+          <t>0.78452482</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>0.80421879</t>
+          <t>0.80479316</t>
         </is>
       </c>
     </row>
@@ -4985,122 +4985,122 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>651</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>942</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>665</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>708</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>849</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>701</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>836</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>811</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>3003</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2107</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.73214057</t>
+          <t>0.7381044</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.66076696</t>
+          <t>0.65877902</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.73406438</t>
+          <t>0.73444915</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.26785943</t>
+          <t>0.2618956</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.33923304</t>
+          <t>0.34122098</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.26593562</t>
+          <t>0.26555085</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.53363621</t>
+          <t>0.53755382</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0.61133915</t>
+          <t>0.61905747</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0.5260523</t>
+          <t>0.51850487</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>0.81353531</t>
+          <t>0.82033384</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>0.69581793</t>
+          <t>0.68682853</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>0.82112946</t>
+          <t>0.82490892</t>
         </is>
       </c>
     </row>
@@ -5116,122 +5116,122 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>681</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>953</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>628</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>690</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>811</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>761</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>813</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>1296</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>827</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2981</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.73361549</t>
+          <t>0.73169168</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.65538027</t>
+          <t>0.66025394</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.7307939</t>
+          <t>0.73348724</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.26638451</t>
+          <t>0.26830832</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0.34461973</t>
+          <t>0.33974606</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0.2692061</t>
+          <t>0.26651276</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.52450342</t>
+          <t>0.53413565</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0.61488252</t>
+          <t>0.61166964</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0.51754253</t>
+          <t>0.52231436</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>0.81929893</t>
+          <t>0.8127226</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>0.6839917</t>
+          <t>0.69463424</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>0.82007326</t>
+          <t>0.82190675</t>
         </is>
       </c>
     </row>
@@ -5247,122 +5247,122 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>425</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>133</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>784</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>734</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>481</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1502</t>
+          <t>1464</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2954</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2972</t>
+          <t>2928</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.74009234</t>
+          <t>0.76272925</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.62524048</t>
+          <t>0.65345646</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.67532384</t>
+          <t>0.61279979</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0.25990766</t>
+          <t>0.23727075</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0.37475952</t>
+          <t>0.34654354</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0.32467616</t>
+          <t>0.38720021</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0.62555731</t>
+          <t>0.48205466</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0.12947269</t>
+          <t>0.22777008</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0.96526914</t>
+          <t>0.94890621</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>0.78702218</t>
+          <t>0.87782159</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>0.97572342</t>
+          <t>0.95435059</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>0.5539424</t>
+          <t>0.47209808</t>
         </is>
       </c>
     </row>
@@ -5378,122 +5378,122 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>417</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1576</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>780</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>1643</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>722</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>510</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>3279</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>1716</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.74047711</t>
+          <t>0.76452482</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.62588175</t>
+          <t>0.65409773</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.67468257</t>
+          <t>0.61369758</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>0.25952289</t>
+          <t>0.23547518</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>0.37411825</t>
+          <t>0.34590227</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>0.32531743</t>
+          <t>0.38630242</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>0.62524634</t>
+          <t>0.48183626</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>0.1301091</t>
+          <t>0.23166647</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>0.96558552</t>
+          <t>0.94973263</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>0.78773511</t>
+          <t>0.88066695</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>0.97649643</t>
+          <t>0.95272108</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>0.55308167</t>
+          <t>0.47314217</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>265</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -5519,112 +5519,112 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>742</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>651</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>661</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>370</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>834</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>3386</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2358</t>
+          <t>2349</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>2917</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.81839169</t>
+          <t>0.82050789</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0.74259331</t>
+          <t>0.74368347</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.79171476</t>
+          <t>0.79017571</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>0.18160831</t>
+          <t>0.17949211</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>0.25740669</t>
+          <t>0.25631653</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>0.20828524</t>
+          <t>0.20982429</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>0.55683058</t>
+          <t>0.56004256</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>0.70092357</t>
+          <t>0.70040984</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>0.75980752</t>
+          <t>0.7602707</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>0.92568014</t>
+          <t>0.92739548</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>0.77208581</t>
+          <t>0.77437495</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>0.80507986</t>
+          <t>0.80268864</t>
         </is>
       </c>
     </row>
@@ -5640,122 +5640,122 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>295</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>716</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>681</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>652</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>638</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>402</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>844</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>1471</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1191</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3416</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2364</t>
+          <t>2373</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>2924</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.81813518</t>
+          <t>0.81832756</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>0.74355521</t>
+          <t>0.74240092</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.79036809</t>
+          <t>0.79004745</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0.18186482</t>
+          <t>0.18167244</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0.25644479</t>
+          <t>0.25759908</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>0.20963191</t>
+          <t>0.20995255</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>0.5570638</t>
+          <t>0.55385414</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0.69960261</t>
+          <t>0.69855832</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>0.76041064</t>
+          <t>0.76335321</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>0.92522796</t>
+          <t>0.9268727</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>0.77467994</t>
+          <t>0.77345113</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>0.80300397</t>
+          <t>0.80157343</t>
         </is>
       </c>
     </row>
